--- a/MiddleAssignment_LeTuanSang/MiddleAssignment_TestDesign2/TestDesign2_LeTuanSang_updated.xlsx
+++ b/MiddleAssignment_LeTuanSang/MiddleAssignment_TestDesign2/TestDesign2_LeTuanSang_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NashTechHomeWork_LeTuanSang\MiddleAssignment_LeTuanSang\MiddleAssignment_TestDesign2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3319E3DC-B96A-4341-A73C-2704AC6665CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660C4AC8-3918-43A4-857E-DAF0EC369FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1485" windowWidth="18945" windowHeight="14715" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Record of Change" sheetId="1" r:id="rId1"/>
@@ -482,7 +482,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="315">
   <si>
     <r>
       <rPr>
@@ -1412,9 +1412,6 @@
     <t>Check Birthday if input nothing</t>
   </si>
   <si>
-    <t>Check value of the Month droplist is sort ascending from 1 to 30</t>
-  </si>
-  <si>
     <t>Check value of the Day droplist is sort ascending from 1 to 30</t>
   </si>
   <si>
@@ -1540,6 +1537,12 @@
   </si>
   <si>
     <t>Verify that the Birthday have placeholder when get the page Sign up with Phone number</t>
+  </si>
+  <si>
+    <t>Check value of the Month droplist is sort ascending from 1 to 12</t>
+  </si>
+  <si>
+    <t>Check Password by pasting data</t>
   </si>
 </sst>
 </file>
@@ -3087,30 +3090,30 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3123,6 +3126,27 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="18" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3132,26 +3156,32 @@
     <xf numFmtId="0" fontId="41" fillId="18" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="14" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="56" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="54" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="3" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="15" fillId="8" borderId="5" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3162,35 +3192,8 @@
     <xf numFmtId="164" fontId="15" fillId="8" borderId="4" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="15" fillId="8" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="3" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="56" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="54" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="14" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="11" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -3463,7 +3466,7 @@
                   <c:v>Verify that automatic trim the space when input phone number( typing, pasting space)</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Check Phone Number by pasting data</c:v>
+                  <c:v>Check Password by pasting data</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>Check Password when input URL, SQL, HTTP GET, SQL Injection, XSS</c:v>
@@ -3481,7 +3484,7 @@
                   <c:v>Check value of the Day droplist is sort ascending from 1 to 30</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>Check value of the Month droplist is sort ascending from 1 to 30</c:v>
+                  <c:v>Check value of the Month droplist is sort ascending from 1 to 12</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>Check value of the Yeah droplist is sort ascending from 1900 to 2022</c:v>
@@ -3986,7 +3989,7 @@
                   <c:v>Verify that automatic trim the space when input phone number( typing, pasting space)</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Check Phone Number by pasting data</c:v>
+                  <c:v>Check Password by pasting data</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>Check Password when input URL, SQL, HTTP GET, SQL Injection, XSS</c:v>
@@ -4004,7 +4007,7 @@
                   <c:v>Check value of the Day droplist is sort ascending from 1 to 30</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>Check value of the Month droplist is sort ascending from 1 to 30</c:v>
+                  <c:v>Check value of the Month droplist is sort ascending from 1 to 12</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>Check value of the Yeah droplist is sort ascending from 1900 to 2022</c:v>
@@ -5929,36 +5932,36 @@
       <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" customHeight="1">
-      <c r="B2" s="228" t="s">
+      <c r="B2" s="224" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
-      <c r="J2" s="229" t="s">
+      <c r="C2" s="224"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="224"/>
+      <c r="F2" s="224"/>
+      <c r="G2" s="224"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="224"/>
+      <c r="J2" s="225" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="229"/>
+      <c r="K2" s="225"/>
     </row>
     <row r="3" spans="1:11" ht="28.5" customHeight="1">
-      <c r="B3" s="230" t="s">
+      <c r="B3" s="226" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="230"/>
-      <c r="D3" s="230"/>
-      <c r="E3" s="230"/>
-      <c r="F3" s="231" t="s">
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="227" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="231"/>
-      <c r="H3" s="231"/>
-      <c r="I3" s="231"/>
-      <c r="J3" s="229"/>
-      <c r="K3" s="229"/>
+      <c r="G3" s="227"/>
+      <c r="H3" s="227"/>
+      <c r="I3" s="227"/>
+      <c r="J3" s="225"/>
+      <c r="K3" s="225"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="B4" s="26"/>
@@ -5978,65 +5981,65 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A7" s="226" t="s">
+      <c r="A7" s="228" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="226"/>
-      <c r="C7" s="226"/>
-      <c r="D7" s="226"/>
-      <c r="E7" s="226"/>
-      <c r="F7" s="226"/>
-      <c r="G7" s="226"/>
-      <c r="H7" s="226"/>
-      <c r="I7" s="226"/>
+      <c r="B7" s="228"/>
+      <c r="C7" s="228"/>
+      <c r="D7" s="228"/>
+      <c r="E7" s="228"/>
+      <c r="F7" s="228"/>
+      <c r="G7" s="228"/>
+      <c r="H7" s="228"/>
+      <c r="I7" s="228"/>
     </row>
     <row r="8" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A8" s="226"/>
-      <c r="B8" s="226"/>
-      <c r="C8" s="226"/>
-      <c r="D8" s="226"/>
-      <c r="E8" s="226"/>
-      <c r="F8" s="226"/>
-      <c r="G8" s="226"/>
-      <c r="H8" s="226"/>
-      <c r="I8" s="226"/>
+      <c r="A8" s="228"/>
+      <c r="B8" s="228"/>
+      <c r="C8" s="228"/>
+      <c r="D8" s="228"/>
+      <c r="E8" s="228"/>
+      <c r="F8" s="228"/>
+      <c r="G8" s="228"/>
+      <c r="H8" s="228"/>
+      <c r="I8" s="228"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A9" s="226" t="s">
+      <c r="A9" s="228" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="226"/>
-      <c r="C9" s="226"/>
-      <c r="D9" s="226"/>
-      <c r="E9" s="226"/>
-      <c r="F9" s="226"/>
-      <c r="G9" s="226"/>
-      <c r="H9" s="226"/>
-      <c r="I9" s="226"/>
+      <c r="B9" s="228"/>
+      <c r="C9" s="228"/>
+      <c r="D9" s="228"/>
+      <c r="E9" s="228"/>
+      <c r="F9" s="228"/>
+      <c r="G9" s="228"/>
+      <c r="H9" s="228"/>
+      <c r="I9" s="228"/>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
-      <c r="A10" s="226"/>
-      <c r="B10" s="226"/>
-      <c r="C10" s="226"/>
-      <c r="D10" s="226"/>
-      <c r="E10" s="226"/>
-      <c r="F10" s="226"/>
-      <c r="G10" s="226"/>
-      <c r="H10" s="226"/>
-      <c r="I10" s="226"/>
+      <c r="A10" s="228"/>
+      <c r="B10" s="228"/>
+      <c r="C10" s="228"/>
+      <c r="D10" s="228"/>
+      <c r="E10" s="228"/>
+      <c r="F10" s="228"/>
+      <c r="G10" s="228"/>
+      <c r="H10" s="228"/>
+      <c r="I10" s="228"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="227" t="s">
+      <c r="A11" s="229" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="227"/>
-      <c r="C11" s="227"/>
-      <c r="D11" s="227"/>
-      <c r="E11" s="227"/>
-      <c r="F11" s="227"/>
-      <c r="G11" s="227"/>
-      <c r="H11" s="227"/>
-      <c r="I11" s="227"/>
+      <c r="B11" s="229"/>
+      <c r="C11" s="229"/>
+      <c r="D11" s="229"/>
+      <c r="E11" s="229"/>
+      <c r="F11" s="229"/>
+      <c r="G11" s="229"/>
+      <c r="H11" s="229"/>
+      <c r="I11" s="229"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="30"/>
@@ -6058,65 +6061,65 @@
       <c r="A14" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="224" t="s">
+      <c r="B14" s="230" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="224"/>
-      <c r="D14" s="224"/>
-      <c r="E14" s="224"/>
-      <c r="F14" s="224"/>
-      <c r="G14" s="224"/>
-      <c r="H14" s="224"/>
-      <c r="I14" s="224"/>
-      <c r="J14" s="224"/>
-      <c r="K14" s="224"/>
+      <c r="C14" s="230"/>
+      <c r="D14" s="230"/>
+      <c r="E14" s="230"/>
+      <c r="F14" s="230"/>
+      <c r="G14" s="230"/>
+      <c r="H14" s="230"/>
+      <c r="I14" s="230"/>
+      <c r="J14" s="230"/>
+      <c r="K14" s="230"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
       <c r="A15" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="224" t="s">
+      <c r="B15" s="230" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="224"/>
-      <c r="D15" s="224"/>
-      <c r="E15" s="224"/>
-      <c r="F15" s="224"/>
-      <c r="G15" s="224"/>
-      <c r="H15" s="224"/>
-      <c r="I15" s="224"/>
-      <c r="J15" s="224"/>
-      <c r="K15" s="224"/>
+      <c r="C15" s="230"/>
+      <c r="D15" s="230"/>
+      <c r="E15" s="230"/>
+      <c r="F15" s="230"/>
+      <c r="G15" s="230"/>
+      <c r="H15" s="230"/>
+      <c r="I15" s="230"/>
+      <c r="J15" s="230"/>
+      <c r="K15" s="230"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1">
       <c r="A16" s="31"/>
-      <c r="B16" s="224" t="s">
+      <c r="B16" s="230" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="224"/>
-      <c r="D16" s="224"/>
-      <c r="E16" s="224"/>
-      <c r="F16" s="224"/>
-      <c r="G16" s="224"/>
-      <c r="H16" s="224"/>
-      <c r="I16" s="224"/>
-      <c r="J16" s="224"/>
-      <c r="K16" s="224"/>
+      <c r="C16" s="230"/>
+      <c r="D16" s="230"/>
+      <c r="E16" s="230"/>
+      <c r="F16" s="230"/>
+      <c r="G16" s="230"/>
+      <c r="H16" s="230"/>
+      <c r="I16" s="230"/>
+      <c r="J16" s="230"/>
+      <c r="K16" s="230"/>
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1">
       <c r="A17" s="31"/>
-      <c r="B17" s="224" t="s">
+      <c r="B17" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="224"/>
-      <c r="D17" s="224"/>
-      <c r="E17" s="224"/>
-      <c r="F17" s="224"/>
-      <c r="G17" s="224"/>
-      <c r="H17" s="224"/>
-      <c r="I17" s="224"/>
-      <c r="J17" s="224"/>
-      <c r="K17" s="224"/>
+      <c r="C17" s="230"/>
+      <c r="D17" s="230"/>
+      <c r="E17" s="230"/>
+      <c r="F17" s="230"/>
+      <c r="G17" s="230"/>
+      <c r="H17" s="230"/>
+      <c r="I17" s="230"/>
+      <c r="J17" s="230"/>
+      <c r="K17" s="230"/>
     </row>
     <row r="19" spans="1:14" ht="23.25">
       <c r="A19" s="29" t="s">
@@ -6127,40 +6130,40 @@
       <c r="A20" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="224" t="s">
+      <c r="B20" s="230" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="224"/>
-      <c r="D20" s="224"/>
-      <c r="E20" s="224"/>
-      <c r="F20" s="224"/>
-      <c r="G20" s="224"/>
+      <c r="C20" s="230"/>
+      <c r="D20" s="230"/>
+      <c r="E20" s="230"/>
+      <c r="F20" s="230"/>
+      <c r="G20" s="230"/>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1">
       <c r="A21" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="224" t="s">
+      <c r="B21" s="230" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="224"/>
-      <c r="D21" s="224"/>
-      <c r="E21" s="224"/>
-      <c r="F21" s="224"/>
-      <c r="G21" s="224"/>
+      <c r="C21" s="230"/>
+      <c r="D21" s="230"/>
+      <c r="E21" s="230"/>
+      <c r="F21" s="230"/>
+      <c r="G21" s="230"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1">
       <c r="A22" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="224" t="s">
+      <c r="B22" s="230" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="224"/>
-      <c r="D22" s="224"/>
-      <c r="E22" s="224"/>
-      <c r="F22" s="224"/>
-      <c r="G22" s="224"/>
+      <c r="C22" s="230"/>
+      <c r="D22" s="230"/>
+      <c r="E22" s="230"/>
+      <c r="F22" s="230"/>
+      <c r="G22" s="230"/>
     </row>
     <row r="24" spans="1:14" ht="23.25">
       <c r="A24" s="29" t="s">
@@ -6219,11 +6222,11 @@
       <c r="N27" s="34"/>
     </row>
     <row r="29" spans="1:14" ht="21.75" customHeight="1">
-      <c r="B29" s="225" t="s">
+      <c r="B29" s="231" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="225"/>
-      <c r="D29" s="225"/>
+      <c r="C29" s="231"/>
+      <c r="D29" s="231"/>
     </row>
     <row r="30" spans="1:14" ht="90" customHeight="1">
       <c r="B30" s="35"/>
@@ -6246,21 +6249,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A9:I10"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B16:K16"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="J2:K3"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="A7:I8"/>
-    <mergeCell ref="A9:I10"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B29:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6714,8 +6717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMJ229"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -6732,10 +6735,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="23" customFormat="1" ht="14.25">
-      <c r="A1" s="242"/>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
+      <c r="A1" s="236"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
       <c r="E1" s="25"/>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
@@ -6745,14 +6748,14 @@
       <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:25" s="23" customFormat="1" ht="26.25">
-      <c r="A2" s="243" t="s">
+      <c r="A2" s="237" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
       <c r="E2" s="71"/>
-      <c r="F2" s="244"/>
+      <c r="F2" s="238"/>
       <c r="G2" s="56"/>
       <c r="H2" s="56"/>
       <c r="I2" s="56"/>
@@ -6762,10 +6765,10 @@
     <row r="3" spans="1:25" s="23" customFormat="1" ht="23.25">
       <c r="A3" s="72"/>
       <c r="B3" s="73"/>
-      <c r="C3" s="245"/>
-      <c r="D3" s="245"/>
+      <c r="C3" s="239"/>
+      <c r="D3" s="239"/>
       <c r="E3" s="74"/>
-      <c r="F3" s="244"/>
+      <c r="F3" s="238"/>
       <c r="G3" s="56"/>
       <c r="H3" s="56"/>
       <c r="I3" s="56"/>
@@ -6776,9 +6779,9 @@
       <c r="A4" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="239"/>
-      <c r="C4" s="239"/>
-      <c r="D4" s="239"/>
+      <c r="B4" s="240"/>
+      <c r="C4" s="240"/>
+      <c r="D4" s="240"/>
       <c r="E4" s="76"/>
       <c r="F4" s="77"/>
       <c r="G4" s="77"/>
@@ -6793,9 +6796,9 @@
       <c r="A5" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="239"/>
-      <c r="C5" s="239"/>
-      <c r="D5" s="239"/>
+      <c r="B5" s="240"/>
+      <c r="C5" s="240"/>
+      <c r="D5" s="240"/>
       <c r="E5" s="76"/>
       <c r="F5" s="77"/>
       <c r="G5" s="77"/>
@@ -6810,11 +6813,11 @@
       <c r="A6" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="239" t="s">
+      <c r="B6" s="240" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="239"/>
-      <c r="D6" s="239"/>
+      <c r="C6" s="240"/>
+      <c r="D6" s="240"/>
       <c r="E6" s="76"/>
       <c r="F6" s="77"/>
       <c r="G6" s="77"/>
@@ -6826,11 +6829,11 @@
       <c r="A7" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="239" t="s">
+      <c r="B7" s="240" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="239"/>
-      <c r="D7" s="239"/>
+      <c r="C7" s="240"/>
+      <c r="D7" s="240"/>
       <c r="E7" s="76"/>
       <c r="F7" s="77"/>
       <c r="G7" s="77"/>
@@ -6843,9 +6846,9 @@
       <c r="A8" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="240"/>
-      <c r="C8" s="240"/>
-      <c r="D8" s="240"/>
+      <c r="B8" s="241"/>
+      <c r="C8" s="241"/>
+      <c r="D8" s="241"/>
       <c r="E8" s="82"/>
       <c r="F8" s="77"/>
     </row>
@@ -6997,11 +7000,11 @@
       <c r="D16" s="94"/>
       <c r="E16" s="94"/>
       <c r="F16" s="95"/>
-      <c r="G16" s="241" t="s">
+      <c r="G16" s="242" t="s">
         <v>101</v>
       </c>
-      <c r="H16" s="241"/>
-      <c r="I16" s="241"/>
+      <c r="H16" s="242"/>
+      <c r="I16" s="242"/>
       <c r="J16" s="96"/>
     </row>
     <row r="17" spans="1:10" s="97" customFormat="1" ht="51">
@@ -7030,11 +7033,11 @@
     </row>
     <row r="18" spans="1:10" s="97" customFormat="1" ht="12.75">
       <c r="A18" s="100"/>
-      <c r="B18" s="237" t="s">
+      <c r="B18" s="244" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="237"/>
-      <c r="D18" s="237"/>
+      <c r="C18" s="244"/>
+      <c r="D18" s="244"/>
       <c r="E18" s="102"/>
       <c r="F18" s="101"/>
       <c r="G18" s="103"/>
@@ -7079,7 +7082,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="109" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C21" s="110"/>
       <c r="D21" s="110"/>
@@ -7215,7 +7218,7 @@
         <v>10</v>
       </c>
       <c r="B29" s="109" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C29" s="110"/>
       <c r="D29" s="110"/>
@@ -7308,7 +7311,7 @@
         <v>15</v>
       </c>
       <c r="B34" s="109" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C34" s="110"/>
       <c r="D34" s="110"/>
@@ -7339,7 +7342,7 @@
         <v>16</v>
       </c>
       <c r="B36" s="109" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C36" s="109"/>
       <c r="D36" s="110"/>
@@ -7551,7 +7554,7 @@
       <c r="C48" s="110"/>
       <c r="D48" s="110"/>
       <c r="E48" s="112" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F48" s="188"/>
       <c r="G48" s="32"/>
@@ -7565,7 +7568,7 @@
         <v>28</v>
       </c>
       <c r="B49" s="109" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C49" s="110"/>
       <c r="D49" s="110"/>
@@ -7703,7 +7706,7 @@
       <c r="C57" s="109"/>
       <c r="D57" s="110"/>
       <c r="E57" s="110" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F57" s="114"/>
       <c r="G57" s="32"/>
@@ -7872,7 +7875,7 @@
         <v>45</v>
       </c>
       <c r="B67" s="109" t="s">
-        <v>250</v>
+        <v>314</v>
       </c>
       <c r="C67" s="109"/>
       <c r="D67" s="110"/>
@@ -7891,7 +7894,7 @@
         <v>46</v>
       </c>
       <c r="B68" s="109" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C68" s="109"/>
       <c r="D68" s="110"/>
@@ -7922,7 +7925,7 @@
         <v>47</v>
       </c>
       <c r="B70" s="109" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C70" s="109"/>
       <c r="D70" s="110"/>
@@ -7958,7 +7961,7 @@
         <v>49</v>
       </c>
       <c r="B72" s="109" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C72" s="109"/>
       <c r="D72" s="110"/>
@@ -7977,7 +7980,7 @@
         <v>50</v>
       </c>
       <c r="B73" s="109" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="C73" s="109"/>
       <c r="D73" s="110"/>
@@ -7996,7 +7999,7 @@
         <v>51</v>
       </c>
       <c r="B74" s="109" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C74" s="109"/>
       <c r="D74" s="110"/>
@@ -8015,7 +8018,7 @@
         <v>52</v>
       </c>
       <c r="B75" s="109" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C75" s="109"/>
       <c r="D75" s="110"/>
@@ -8034,7 +8037,7 @@
         <v>53</v>
       </c>
       <c r="B76" s="109" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C76" s="109"/>
       <c r="D76" s="110"/>
@@ -8051,7 +8054,7 @@
         <v>54</v>
       </c>
       <c r="B77" s="109" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C77" s="109"/>
       <c r="D77" s="110"/>
@@ -8068,7 +8071,7 @@
         <v>55</v>
       </c>
       <c r="B78" s="109" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C78" s="109"/>
       <c r="D78" s="110"/>
@@ -8087,7 +8090,7 @@
         <v>56</v>
       </c>
       <c r="B79" s="109" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C79" s="109"/>
       <c r="D79" s="110"/>
@@ -8120,7 +8123,7 @@
         <v>57</v>
       </c>
       <c r="B81" s="109" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C81" s="109"/>
       <c r="D81" s="110"/>
@@ -8139,7 +8142,7 @@
         <v>58</v>
       </c>
       <c r="B82" s="109" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C82" s="109"/>
       <c r="D82" s="110"/>
@@ -8175,7 +8178,7 @@
         <v>60</v>
       </c>
       <c r="B84" s="109" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C84" s="109"/>
       <c r="D84" s="110"/>
@@ -8208,7 +8211,7 @@
         <v>61</v>
       </c>
       <c r="B86" s="109" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C86" s="109"/>
       <c r="D86" s="110"/>
@@ -8227,7 +8230,7 @@
         <v>62</v>
       </c>
       <c r="B87" s="109" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C87" s="109"/>
       <c r="D87" s="110"/>
@@ -8244,7 +8247,7 @@
         <v>63</v>
       </c>
       <c r="B88" s="109" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C88" s="109"/>
       <c r="D88" s="110"/>
@@ -8263,7 +8266,7 @@
         <v>64</v>
       </c>
       <c r="B89" s="109" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C89" s="109"/>
       <c r="D89" s="110"/>
@@ -8280,7 +8283,7 @@
         <v>65</v>
       </c>
       <c r="B90" s="109" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C90" s="109"/>
       <c r="D90" s="110"/>
@@ -8297,7 +8300,7 @@
         <v>66</v>
       </c>
       <c r="B91" s="109" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C91" s="109"/>
       <c r="D91" s="110"/>
@@ -8314,7 +8317,7 @@
         <v>67</v>
       </c>
       <c r="B92" s="109" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C92" s="109"/>
       <c r="D92" s="110"/>
@@ -8331,7 +8334,7 @@
         <v>68</v>
       </c>
       <c r="B93" s="109" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C93" s="109"/>
       <c r="D93" s="110"/>
@@ -8348,7 +8351,7 @@
         <v>69</v>
       </c>
       <c r="B94" s="109" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C94" s="109"/>
       <c r="D94" s="110"/>
@@ -8365,7 +8368,7 @@
         <v>70</v>
       </c>
       <c r="B95" s="109" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C95" s="109"/>
       <c r="D95" s="110"/>
@@ -8458,7 +8461,7 @@
         <v>75</v>
       </c>
       <c r="B100" s="109" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C100" s="109"/>
       <c r="D100" s="110"/>
@@ -8562,7 +8565,7 @@
         <v>81</v>
       </c>
       <c r="B106" s="109" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C106" s="109"/>
       <c r="D106" s="110"/>
@@ -8596,7 +8599,7 @@
         <v>83</v>
       </c>
       <c r="B108" s="109" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C108" s="109"/>
       <c r="D108" s="110"/>
@@ -8615,7 +8618,7 @@
         <v>84</v>
       </c>
       <c r="B109" s="109" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C109" s="109"/>
       <c r="D109" s="110"/>
@@ -8634,7 +8637,7 @@
         <v>85</v>
       </c>
       <c r="B110" s="109" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C110" s="109"/>
       <c r="D110" s="110"/>
@@ -8653,7 +8656,7 @@
         <v>86</v>
       </c>
       <c r="B111" s="109" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C111" s="109"/>
       <c r="D111" s="110"/>
@@ -8670,7 +8673,7 @@
         <v>87</v>
       </c>
       <c r="B112" s="109" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C112" s="109"/>
       <c r="D112" s="110"/>
@@ -8705,7 +8708,7 @@
     <row r="114" spans="1:11" s="121" customFormat="1" ht="14.25">
       <c r="A114" s="32"/>
       <c r="B114" s="216" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C114" s="211"/>
       <c r="D114" s="211"/>
@@ -8722,7 +8725,7 @@
         <v>89</v>
       </c>
       <c r="B115" s="200" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C115" s="191"/>
       <c r="D115" s="191"/>
@@ -8736,7 +8739,7 @@
     <row r="116" spans="1:11" s="122" customFormat="1">
       <c r="A116" s="210"/>
       <c r="B116" s="217" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C116" s="212"/>
       <c r="D116" s="212"/>
@@ -8749,11 +8752,11 @@
     </row>
     <row r="117" spans="1:11" s="122" customFormat="1" ht="30">
       <c r="A117" s="210">
-        <f t="shared" ref="A116:A119" ca="1" si="5">IF(OFFSET(A117,-1,0) ="",OFFSET(A117,-2,0)+1,OFFSET(A117,-1,0)+1 )</f>
+        <f t="shared" ref="A117:A119" ca="1" si="5">IF(OFFSET(A117,-1,0) ="",OFFSET(A117,-2,0)+1,OFFSET(A117,-1,0)+1 )</f>
         <v>90</v>
       </c>
       <c r="B117" s="200" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C117" s="191"/>
       <c r="D117" s="191"/>
@@ -8767,7 +8770,7 @@
     <row r="118" spans="1:11" s="122" customFormat="1">
       <c r="A118" s="210"/>
       <c r="B118" s="217" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C118" s="212"/>
       <c r="D118" s="212"/>
@@ -8784,7 +8787,7 @@
         <v>91</v>
       </c>
       <c r="B119" s="200" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C119" s="191"/>
       <c r="D119" s="191"/>
@@ -9723,9 +9726,9 @@
     </row>
     <row r="181" spans="1:10" s="126" customFormat="1">
       <c r="A181" s="124"/>
-      <c r="B181" s="238"/>
-      <c r="C181" s="238"/>
-      <c r="D181" s="238"/>
+      <c r="B181" s="245"/>
+      <c r="C181" s="245"/>
+      <c r="D181" s="245"/>
       <c r="E181" s="207"/>
       <c r="F181" s="193"/>
       <c r="G181" s="194"/>
@@ -10107,9 +10110,9 @@
     </row>
     <row r="213" spans="1:10" s="126" customFormat="1" ht="14.25">
       <c r="A213" s="128"/>
-      <c r="B213" s="236"/>
-      <c r="C213" s="236"/>
-      <c r="D213" s="236"/>
+      <c r="B213" s="243"/>
+      <c r="C213" s="243"/>
+      <c r="D213" s="243"/>
       <c r="E213" s="208"/>
       <c r="F213" s="198"/>
       <c r="G213" s="199"/>
@@ -10155,9 +10158,9 @@
     </row>
     <row r="217" spans="1:10" s="126" customFormat="1" ht="14.25">
       <c r="A217" s="128"/>
-      <c r="B217" s="236"/>
-      <c r="C217" s="236"/>
-      <c r="D217" s="236"/>
+      <c r="B217" s="243"/>
+      <c r="C217" s="243"/>
+      <c r="D217" s="243"/>
       <c r="E217" s="208"/>
       <c r="F217" s="198"/>
       <c r="G217" s="199"/>
@@ -10203,9 +10206,9 @@
     </row>
     <row r="221" spans="1:10" s="126" customFormat="1" ht="14.25">
       <c r="A221" s="128"/>
-      <c r="B221" s="236"/>
-      <c r="C221" s="236"/>
-      <c r="D221" s="236"/>
+      <c r="B221" s="243"/>
+      <c r="C221" s="243"/>
+      <c r="D221" s="243"/>
       <c r="E221" s="208"/>
       <c r="F221" s="198"/>
       <c r="G221" s="199"/>
@@ -10239,9 +10242,9 @@
     </row>
     <row r="224" spans="1:10" s="126" customFormat="1" ht="14.25">
       <c r="A224" s="128"/>
-      <c r="B224" s="236"/>
-      <c r="C224" s="236"/>
-      <c r="D224" s="236"/>
+      <c r="B224" s="243"/>
+      <c r="C224" s="243"/>
+      <c r="D224" s="243"/>
       <c r="E224" s="208"/>
       <c r="F224" s="198"/>
       <c r="G224" s="199"/>
@@ -10311,22 +10314,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G16:I16"/>
     <mergeCell ref="B224:D224"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B181:D181"/>
     <mergeCell ref="B213:D213"/>
     <mergeCell ref="B217:D217"/>
     <mergeCell ref="B221:D221"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="G16:I17" xr:uid="{00000000-0002-0000-0500-000000000000}">
@@ -10390,13 +10393,13 @@
     </row>
     <row r="2" spans="1:12" s="134" customFormat="1" ht="26.25">
       <c r="A2" s="133"/>
-      <c r="C2" s="256" t="s">
+      <c r="C2" s="246" t="s">
         <v>162</v>
       </c>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="246"/>
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
       <c r="H2" s="135" t="s">
         <v>163</v>
       </c>
@@ -10407,15 +10410,15 @@
     </row>
     <row r="3" spans="1:12" s="134" customFormat="1" ht="23.25">
       <c r="A3" s="133"/>
-      <c r="C3" s="257" t="s">
+      <c r="C3" s="247" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="257"/>
+      <c r="D3" s="247"/>
       <c r="E3" s="137"/>
-      <c r="F3" s="258" t="s">
+      <c r="F3" s="248" t="s">
         <v>165</v>
       </c>
-      <c r="G3" s="258"/>
+      <c r="G3" s="248"/>
       <c r="H3" s="136"/>
       <c r="I3" s="136"/>
       <c r="J3" s="138"/>
@@ -10440,10 +10443,10 @@
       <c r="L5" s="143"/>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B6" s="252" t="s">
+      <c r="B6" s="249" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="252"/>
+      <c r="C6" s="249"/>
       <c r="D6" s="145"/>
       <c r="E6" s="145"/>
       <c r="F6" s="145"/>
@@ -10612,11 +10615,11 @@
       <c r="G13" s="149"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B14" s="252" t="s">
+      <c r="B14" s="249" t="s">
         <v>196</v>
       </c>
-      <c r="C14" s="252"/>
-      <c r="D14" s="252"/>
+      <c r="C14" s="249"/>
+      <c r="D14" s="249"/>
       <c r="E14" s="145"/>
       <c r="F14" s="145"/>
       <c r="G14" s="146"/>
@@ -10792,11 +10795,11 @@
       <c r="G22" s="149"/>
     </row>
     <row r="23" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B23" s="252" t="s">
+      <c r="B23" s="249" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="252"/>
-      <c r="D23" s="252"/>
+      <c r="C23" s="249"/>
+      <c r="D23" s="249"/>
       <c r="E23" s="145"/>
       <c r="F23" s="145"/>
       <c r="G23" s="146"/>
@@ -10842,10 +10845,10 @@
       <c r="F26" s="151" t="s">
         <v>213</v>
       </c>
-      <c r="G26" s="255" t="s">
+      <c r="G26" s="250" t="s">
         <v>109</v>
       </c>
-      <c r="H26" s="255"/>
+      <c r="H26" s="250"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="158">
@@ -10870,8 +10873,8 @@
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="253"/>
-      <c r="H27" s="253"/>
+      <c r="G27" s="251"/>
+      <c r="H27" s="251"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1">
       <c r="A28" s="158">
@@ -10896,8 +10899,8 @@
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="253"/>
-      <c r="H28" s="253"/>
+      <c r="G28" s="251"/>
+      <c r="H28" s="251"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1">
       <c r="A29" s="158">
@@ -10922,8 +10925,8 @@
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="253"/>
-      <c r="H29" s="253"/>
+      <c r="G29" s="251"/>
+      <c r="H29" s="251"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1">
       <c r="A30" s="158">
@@ -10948,8 +10951,8 @@
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="253"/>
-      <c r="H30" s="253"/>
+      <c r="G30" s="251"/>
+      <c r="H30" s="251"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1">
       <c r="A31" s="158"/>
@@ -10970,8 +10973,8 @@
         <f>SUM(F27:F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="253"/>
-      <c r="H31" s="253"/>
+      <c r="G31" s="251"/>
+      <c r="H31" s="251"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1">
       <c r="A32" s="164"/>
@@ -11009,10 +11012,10 @@
       <c r="E34" s="151" t="s">
         <v>172</v>
       </c>
-      <c r="F34" s="249" t="s">
+      <c r="F34" s="252" t="s">
         <v>175</v>
       </c>
-      <c r="G34" s="249"/>
+      <c r="G34" s="252"/>
     </row>
     <row r="35" spans="1:12" s="157" customFormat="1" ht="14.25">
       <c r="A35" s="153"/>
@@ -11028,8 +11031,8 @@
       <c r="E35" s="162" t="s">
         <v>180</v>
       </c>
-      <c r="F35" s="254"/>
-      <c r="G35" s="254"/>
+      <c r="F35" s="253"/>
+      <c r="G35" s="253"/>
       <c r="H35" s="156"/>
       <c r="I35" s="156"/>
       <c r="J35" s="156"/>
@@ -11052,8 +11055,8 @@
       <c r="E36" s="163" t="s">
         <v>186</v>
       </c>
-      <c r="F36" s="253"/>
-      <c r="G36" s="253"/>
+      <c r="F36" s="251"/>
+      <c r="G36" s="251"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1">
       <c r="A37" s="158">
@@ -11071,8 +11074,8 @@
       <c r="E37" s="163" t="s">
         <v>186</v>
       </c>
-      <c r="F37" s="253"/>
-      <c r="G37" s="253"/>
+      <c r="F37" s="251"/>
+      <c r="G37" s="251"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1">
       <c r="A38" s="164"/>
@@ -11085,10 +11088,10 @@
       <c r="H38" s="168"/>
     </row>
     <row r="39" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B39" s="252" t="s">
+      <c r="B39" s="249" t="s">
         <v>229</v>
       </c>
-      <c r="C39" s="252"/>
+      <c r="C39" s="249"/>
       <c r="D39" s="145"/>
       <c r="E39" s="145"/>
       <c r="F39" s="145"/>
@@ -11112,15 +11115,15 @@
       <c r="B41" s="151" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="249" t="s">
+      <c r="C41" s="252" t="s">
         <v>231</v>
       </c>
-      <c r="D41" s="249"/>
-      <c r="E41" s="249" t="s">
+      <c r="D41" s="252"/>
+      <c r="E41" s="252" t="s">
         <v>232</v>
       </c>
-      <c r="F41" s="249"/>
-      <c r="G41" s="249"/>
+      <c r="F41" s="252"/>
+      <c r="G41" s="252"/>
       <c r="H41" s="150" t="s">
         <v>233</v>
       </c>
@@ -11132,15 +11135,15 @@
       <c r="B42" s="172" t="s">
         <v>234</v>
       </c>
-      <c r="C42" s="251" t="s">
+      <c r="C42" s="254" t="s">
         <v>235</v>
       </c>
-      <c r="D42" s="251"/>
-      <c r="E42" s="251" t="s">
+      <c r="D42" s="254"/>
+      <c r="E42" s="254" t="s">
         <v>236</v>
       </c>
-      <c r="F42" s="251"/>
-      <c r="G42" s="251"/>
+      <c r="F42" s="254"/>
+      <c r="G42" s="254"/>
       <c r="H42" s="173"/>
     </row>
     <row r="43" spans="1:12" ht="34.5" customHeight="1">
@@ -11150,15 +11153,15 @@
       <c r="B43" s="172" t="s">
         <v>234</v>
       </c>
-      <c r="C43" s="251" t="s">
+      <c r="C43" s="254" t="s">
         <v>235</v>
       </c>
-      <c r="D43" s="251"/>
-      <c r="E43" s="251" t="s">
+      <c r="D43" s="254"/>
+      <c r="E43" s="254" t="s">
         <v>236</v>
       </c>
-      <c r="F43" s="251"/>
-      <c r="G43" s="251"/>
+      <c r="F43" s="254"/>
+      <c r="G43" s="254"/>
       <c r="H43" s="173"/>
     </row>
     <row r="44" spans="1:12" ht="34.5" customHeight="1">
@@ -11168,15 +11171,15 @@
       <c r="B44" s="172" t="s">
         <v>234</v>
       </c>
-      <c r="C44" s="251" t="s">
+      <c r="C44" s="254" t="s">
         <v>235</v>
       </c>
-      <c r="D44" s="251"/>
-      <c r="E44" s="251" t="s">
+      <c r="D44" s="254"/>
+      <c r="E44" s="254" t="s">
         <v>236</v>
       </c>
-      <c r="F44" s="251"/>
-      <c r="G44" s="251"/>
+      <c r="F44" s="254"/>
+      <c r="G44" s="254"/>
       <c r="H44" s="173"/>
     </row>
     <row r="45" spans="1:12">
@@ -11188,10 +11191,10 @@
       <c r="G45" s="149"/>
     </row>
     <row r="46" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B46" s="252" t="s">
+      <c r="B46" s="249" t="s">
         <v>237</v>
       </c>
-      <c r="C46" s="252"/>
+      <c r="C46" s="249"/>
       <c r="D46" s="145"/>
       <c r="E46" s="145"/>
       <c r="F46" s="145"/>
@@ -11209,25 +11212,25 @@
       <c r="G47" s="149"/>
     </row>
     <row r="48" spans="1:12" s="177" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="247" t="s">
+      <c r="A48" s="256" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="248" t="s">
+      <c r="B48" s="257" t="s">
         <v>239</v>
       </c>
-      <c r="C48" s="249" t="s">
+      <c r="C48" s="252" t="s">
         <v>240</v>
       </c>
-      <c r="D48" s="249"/>
-      <c r="E48" s="249"/>
-      <c r="F48" s="249"/>
-      <c r="G48" s="250" t="s">
+      <c r="D48" s="252"/>
+      <c r="E48" s="252"/>
+      <c r="F48" s="252"/>
+      <c r="G48" s="258" t="s">
         <v>205</v>
       </c>
-      <c r="H48" s="250" t="s">
+      <c r="H48" s="258" t="s">
         <v>239</v>
       </c>
-      <c r="I48" s="246" t="s">
+      <c r="I48" s="255" t="s">
         <v>241</v>
       </c>
       <c r="J48" s="176"/>
@@ -11235,8 +11238,8 @@
       <c r="L48" s="176"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="247"/>
-      <c r="B49" s="248"/>
+      <c r="A49" s="256"/>
+      <c r="B49" s="257"/>
       <c r="C49" s="178" t="s">
         <v>214</v>
       </c>
@@ -11249,13 +11252,13 @@
       <c r="F49" s="179" t="s">
         <v>217</v>
       </c>
-      <c r="G49" s="250"/>
-      <c r="H49" s="250"/>
-      <c r="I49" s="246"/>
+      <c r="G49" s="258"/>
+      <c r="H49" s="258"/>
+      <c r="I49" s="255"/>
     </row>
     <row r="50" spans="1:9" ht="38.25">
-      <c r="A50" s="247"/>
-      <c r="B50" s="248"/>
+      <c r="A50" s="256"/>
+      <c r="B50" s="257"/>
       <c r="C50" s="180" t="s">
         <v>242</v>
       </c>
@@ -11367,38 +11370,38 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="E41:G41"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="E42:G42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">

--- a/MiddleAssignment_LeTuanSang/MiddleAssignment_TestDesign2/TestDesign2_LeTuanSang_updated.xlsx
+++ b/MiddleAssignment_LeTuanSang/MiddleAssignment_TestDesign2/TestDesign2_LeTuanSang_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NashTechHomeWork_LeTuanSang\MiddleAssignment_LeTuanSang\MiddleAssignment_TestDesign2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660C4AC8-3918-43A4-857E-DAF0EC369FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59518B44-A8E4-4800-A66E-4B6BA7F8F929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6717,8 +6717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMJ229"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
